--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56234.90493091786</v>
+        <v>11190746.08125265</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56234.90493091786</v>
+        <v>11190746.08125265</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23212.33042139265</v>
+        <v>2854095.635666452</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23212.33042139265</v>
+        <v>2854095.635666452</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495705238.261785</v>
+        <v>59858741.4395419</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12671.11018883438</v>
+        <v>1398532.288183057</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24254.29870141562</v>
+        <v>2626424.902507337</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35837.48721399684</v>
+        <v>3854317.516831618</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48508.63063168577</v>
+        <v>4936125.947636705</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60330.26099308778</v>
+        <v>6134058.62196929</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72151.8913544898</v>
+        <v>7331991.296301872</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84041.39012530979</v>
+        <v>8572624.563482117</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95866.74344158433</v>
+        <v>9800492.885207815</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108473.7414047278</v>
+        <v>10869536.37055835</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120090.3550780068</v>
+        <v>12097428.98488262</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131706.9687512859</v>
+        <v>13325321.5992069</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>143323.582424565</v>
+        <v>14553214.21353119</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154940.196097844</v>
+        <v>15781106.82785548</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>167611.3395155329</v>
+        <v>16862915.25866057</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>183731.0434223408</v>
+        <v>17463166.64535853</v>
       </c>
     </row>
   </sheetData>
